--- a/medicine/Premiers secours et secourisme/Lifeguard_tower/Lifeguard_tower.xlsx
+++ b/medicine/Premiers secours et secourisme/Lifeguard_tower/Lifeguard_tower.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lifeguard tower est une tour pour maîtres-nageurs sauveteurs de surveillance des plages (en anglais).  
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces lieux de surveillance panoramique surélevés sont souvent aménagés et équipés pour permettre à des maîtres-nageurs sauveteurs de surveiller des plages de station balnéaire ou des piscines publiques, et de porter secours (sauvetage aquatique) aux nageurs et autres surfeurs en difficulté ou en danger d'hydrocution, de malaises, d'accidents, de noyade, et autres attaques de requin (selon les régions du monde)... 
 </t>
@@ -542,7 +556,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs formes varient des chaises surélevées, à des formes de cabane-bungalow plus évoluées, ou artistiques, voir emblématiques locales (comme celles des plages de Californie ou de l'architecture Art déco de Miami des plages de Miami Beach en Floride, ou encore de la surf culture...).  
 	Quelques exemples
@@ -589,9 +605,11 @@
           <t>Télévision et cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1989 : Alerte à Malibu, série télévisée américaine[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1989 : Alerte à Malibu, série télévisée américaine.
 2017 : Baywatch : Alerte à Malibu, de Seth Gordon.</t>
         </is>
       </c>
